--- a/big-data/big-data-capstone/project/data/beer_n_The Hand and Malt Slow IPA.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_The Hand and Malt Slow IPA.xlsx
@@ -986,7 +986,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tide(8,851)
+          <t>Tide(8,855)
 🇫🇮Helsinki, Finland
 3.2October 4, 2017
 Draught at Namsan Chemistry. Amber color, white head. Bitter taste with citrus, rye, hops, a bit of fruits and grass. Bitter finish with citrus, rye, hops, a bit of fruits and grass. Good session…
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>explosivedog(9,851)
+          <t>explosivedog(9,864)
 🇺🇸New York, United States
 3.2July 29, 2016
 Taster at craft roo. Beautiful pale amber colour, but the body feels a little thick. Well balanced hoppy character but not much else to talk about. Really quite pleasant.…
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Moravius(3,415)
+          <t>Moravius(3,419)
 🇩🇪Berlin, Germany
 3.3March 27, 2016
 Vom Faß im Brew 3.14, Seoul. - Tiefes Goldgelb, schwach trüb, schöner Schaum mit klassischer Ringbildung. - Feine, elegante IPA-Nase: tropische Frucht, Grapefruit, Harz. - Antrunk etwas…
